--- a/resources/community_profiles_different_sources.xlsx
+++ b/resources/community_profiles_different_sources.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28412"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\christopher.smith\OneDrive - Cook County Health\git_repos\justenvirons\scc-community-profiles\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E83DEBF-4B43-4C7F-8662-0F9F430311F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="8_{6E83DEBF-4B43-4C7F-8662-0F9F430311F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D620B841-1FB9-488B-BC36-1BEEF3B62B42}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{4F50F19F-D296-4B9C-8CD4-875E928491F3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{4F50F19F-D296-4B9C-8CD4-875E928491F3}"/>
   </bookViews>
   <sheets>
-    <sheet name="profile assessment spreadsheet " sheetId="1" r:id="rId1"/>
-    <sheet name="profile assessment (transposed)" sheetId="2" r:id="rId2"/>
+    <sheet name="profile assessment (transposed)" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,17 +36,65 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="49">
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Attribute</t>
+  </si>
+  <si>
+    <t>Source 1</t>
+  </si>
+  <si>
+    <t>Source 2</t>
+  </si>
+  <si>
+    <t>Source 3</t>
+  </si>
+  <si>
+    <t>Source 4</t>
+  </si>
+  <si>
+    <t>Source 5</t>
+  </si>
+  <si>
+    <t>Source 6</t>
+  </si>
+  <si>
+    <t>Source 7</t>
+  </si>
+  <si>
+    <t>Source 8</t>
+  </si>
+  <si>
+    <t>Source 9</t>
+  </si>
+  <si>
+    <t>Source 10</t>
+  </si>
+  <si>
+    <t>Geographies</t>
+  </si>
   <si>
     <t>Number of communities/places/geographics</t>
   </si>
   <si>
+    <t>27-communities</t>
+  </si>
+  <si>
+    <t>3 geographics</t>
+  </si>
+  <si>
+    <t>1 geographic</t>
+  </si>
+  <si>
+    <t>50 states</t>
+  </si>
+  <si>
     <t>Presentation of the content</t>
   </si>
   <si>
-    <t xml:space="preserve">Sources </t>
-  </si>
-  <si>
     <t>Maps/spatial information/location map</t>
   </si>
   <si>
@@ -63,6 +110,9 @@
     <t>Benchmarks/target/references measures</t>
   </si>
   <si>
+    <t>Yes</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Health equity/disparity</t>
   </si>
   <si>
@@ -81,7 +131,16 @@
     <t>Page length</t>
   </si>
   <si>
-    <t xml:space="preserve"> Profile format and/or platform (PDF; HTML; ArcGIS Online; interactive web page)</t>
+    <t>Profile format and/or platform (PDF; HTML; ArcGIS Online; interactive web page)</t>
+  </si>
+  <si>
+    <t>PDF</t>
+  </si>
+  <si>
+    <t>interactive web page</t>
+  </si>
+  <si>
+    <t>interactive web page and PDF available</t>
   </si>
   <si>
     <t>Devices accommodated (responsive to different types of screens)</t>
@@ -90,85 +149,50 @@
     <t>Email, sharing, print-enabled</t>
   </si>
   <si>
-    <t xml:space="preserve"> Data sources</t>
+    <t>Data sources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data sources refer to the CHNA at uchicagomedicine.org/community-health </t>
+  </si>
+  <si>
+    <t>Most data comes from the American Community Survey (2018-2022), a sample-based data product</t>
   </si>
   <si>
     <t>Data download</t>
   </si>
   <si>
+    <t>No</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Accessibility</t>
   </si>
   <si>
     <t>Audiences accommodated</t>
   </si>
   <si>
-    <t>Attribute</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Geographies</t>
-  </si>
-  <si>
-    <t>Source 1</t>
-  </si>
-  <si>
-    <t>Source 2</t>
-  </si>
-  <si>
-    <t>Source 3</t>
-  </si>
-  <si>
-    <t>Source 4</t>
-  </si>
-  <si>
-    <t>Source 5</t>
-  </si>
-  <si>
-    <t>Source 6</t>
-  </si>
-  <si>
-    <t>Source 7</t>
-  </si>
-  <si>
-    <t>Source 8</t>
-  </si>
-  <si>
-    <t>Source 9</t>
-  </si>
-  <si>
-    <t>Source 10</t>
-  </si>
-  <si>
-    <t>Profile format and/or platform (PDF; HTML; ArcGIS Online; interactive web page)</t>
-  </si>
-  <si>
-    <t>Data sources</t>
+    <t>Yes-need to understand the meaning of accessibility</t>
+  </si>
+  <si>
+    <t>Source1=U Chicago medicine community health profiles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source2= Chicago Metropolitan Agency for Planning’s (CMAP) Community Data Snapshots </t>
+  </si>
+  <si>
+    <t>Source3= CCDPH_community_profile</t>
+  </si>
+  <si>
+    <t>Source4= America'sHealthRankings-Illinois- Explore Health Measures and Rankings in Illinois | AHR, for Data sources: https://www.americashealthrankings.org/learn/reports/2023-annual-report</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="5"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF002060"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -179,25 +203,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF050505"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -212,18 +236,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -578,310 +594,411 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97FFC242-3715-4D54-81CC-CEEA99276085}">
-  <dimension ref="A1:V2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{626A8EBB-C25F-45F7-8A1A-22138D699762}">
+  <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection sqref="A1:V2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="2" max="2" width="3.6328125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="37.08984375" customWidth="1"/>
-    <col min="4" max="4" width="2.54296875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="31" customWidth="1"/>
-    <col min="8" max="8" width="26.453125" customWidth="1"/>
-    <col min="9" max="9" width="34.36328125" customWidth="1"/>
-    <col min="10" max="10" width="20.36328125" customWidth="1"/>
-    <col min="11" max="11" width="31.08984375" customWidth="1"/>
-    <col min="12" max="12" width="15.08984375" customWidth="1"/>
-    <col min="14" max="14" width="3.36328125" style="6" customWidth="1"/>
-    <col min="20" max="20" width="13.453125" customWidth="1"/>
-    <col min="21" max="21" width="3.08984375" style="6" customWidth="1"/>
-    <col min="22" max="22" width="22.81640625" customWidth="1"/>
+    <col min="1" max="1" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="66.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="11" width="9.85546875" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="2" t="s">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="1">
         <v>1</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="E2" t="s">
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>5</v>
+      </c>
+      <c r="F5" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="1">
+        <v>7</v>
+      </c>
+      <c r="D6" s="1">
+        <v>6</v>
+      </c>
+      <c r="E6" s="1">
+        <v>5</v>
+      </c>
+      <c r="F6" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="1">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="1">
+        <v>18</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="1">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="1">
         <v>4</v>
       </c>
-      <c r="G2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="D12" s="1">
         <v>6</v>
       </c>
-      <c r="I2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" t="s">
-        <v>11</v>
-      </c>
-      <c r="O2" t="s">
-        <v>13</v>
-      </c>
-      <c r="P2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>15</v>
-      </c>
-      <c r="R2" t="s">
-        <v>16</v>
-      </c>
-      <c r="S2" t="s">
-        <v>17</v>
-      </c>
-      <c r="T2" t="s">
-        <v>18</v>
-      </c>
-      <c r="V2" t="s">
-        <v>20</v>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" ht="15">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15">
+      <c r="A18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="22" spans="1:6" ht="15">
+      <c r="A22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{626A8EBB-C25F-45F7-8A1A-22138D699762}">
-  <dimension ref="A1:L18"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="37.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="66.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="11" width="9.81640625" customWidth="1"/>
-    <col min="12" max="12" width="10.81640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/resources/community_profiles_different_sources.xlsx
+++ b/resources/community_profiles_different_sources.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\christopher.smith\OneDrive - Cook County Health\git_repos\justenvirons\scc-community-profiles\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amder\Desktop\RA Github\scc-community-profiles\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="8_{6E83DEBF-4B43-4C7F-8662-0F9F430311F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D620B841-1FB9-488B-BC36-1BEEF3B62B42}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{596BAAFF-C555-4844-B317-0EC167B2211B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{4F50F19F-D296-4B9C-8CD4-875E928491F3}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4F50F19F-D296-4B9C-8CD4-875E928491F3}"/>
   </bookViews>
   <sheets>
     <sheet name="profile assessment (transposed)" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="63">
   <si>
     <t>Category</t>
   </si>
@@ -183,13 +183,55 @@
   </si>
   <si>
     <t>Source4= America'sHealthRankings-Illinois- Explore Health Measures and Rankings in Illinois | AHR, for Data sources: https://www.americashealthrankings.org/learn/reports/2023-annual-report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source8= </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source9= </t>
+  </si>
+  <si>
+    <t>Source10+</t>
+  </si>
+  <si>
+    <t>Source5= NYC.gov Community Health Profiles</t>
+  </si>
+  <si>
+    <t>59 communites</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes </t>
+  </si>
+  <si>
+    <t>Yes-languages &amp; font sizing</t>
+  </si>
+  <si>
+    <t>Source6= Department of Health &amp; Social Care Public Health Profiles (United Kingdom)</t>
+  </si>
+  <si>
+    <t>4 Area Types</t>
+  </si>
+  <si>
+    <t>7/38</t>
+  </si>
+  <si>
+    <t>Source7= Houston Health Department Community Health Profiles and Reports</t>
+  </si>
+  <si>
+    <t>4 Communities</t>
+  </si>
+  <si>
+    <t>3/20</t>
+  </si>
+  <si>
+    <t>Yes-Houston State of Health, CDC, Healthy People 2020</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,10 +278,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -259,7 +304,6 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{59A14D49-16A8-4E0F-943C-D2D58DE3E486}" name="Table1" displayName="Table1" ref="A1:L18" totalsRowShown="0">
-  <autoFilter ref="A1:L18" xr:uid="{59A14D49-16A8-4E0F-943C-D2D58DE3E486}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{9CAFA580-E19D-423D-8653-A3D6A7B4CAEE}" name="Category"/>
     <tableColumn id="2" xr3:uid="{B274464D-B572-4505-8E80-992A3BB4C1A6}" name="Attribute"/>
@@ -595,21 +639,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{626A8EBB-C25F-45F7-8A1A-22138D699762}">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="66.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="11" width="9.85546875" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -647,7 +699,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -666,8 +718,17 @@
       <c r="F2" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="15">
+      <c r="G2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -686,8 +747,17 @@
       <c r="F3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="15">
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -706,8 +776,17 @@
       <c r="F4" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="15">
+      <c r="G4">
+        <v>22</v>
+      </c>
+      <c r="H4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -726,8 +805,17 @@
       <c r="F5" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="15">
+      <c r="G5">
+        <v>7</v>
+      </c>
+      <c r="H5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -746,8 +834,17 @@
       <c r="F6" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="15">
+      <c r="G6">
+        <v>8</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -766,8 +863,17 @@
       <c r="F7" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="15">
+      <c r="G7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -786,8 +892,17 @@
       <c r="F8" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="15">
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -806,8 +921,17 @@
       <c r="F9" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" ht="15">
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -826,8 +950,17 @@
       <c r="F10" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" ht="15">
+      <c r="G10" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -846,8 +979,17 @@
       <c r="F11" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" ht="15">
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -864,8 +1006,14 @@
         <v>1</v>
       </c>
       <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:12" ht="15">
+      <c r="G12">
+        <v>20</v>
+      </c>
+      <c r="I12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -884,8 +1032,11 @@
       <c r="F13" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" ht="15">
+      <c r="H13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -902,8 +1053,17 @@
       <c r="F14" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" ht="15">
+      <c r="G14" t="s">
+        <v>54</v>
+      </c>
+      <c r="H14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -922,8 +1082,17 @@
       <c r="F15" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" ht="15">
+      <c r="G15" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -942,8 +1111,17 @@
       <c r="F16" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="15">
+      <c r="G16" t="s">
+        <v>54</v>
+      </c>
+      <c r="H16" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -960,8 +1138,17 @@
       <c r="F17" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="15">
+      <c r="G17" t="s">
+        <v>54</v>
+      </c>
+      <c r="H17" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -976,32 +1163,72 @@
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-    </row>
-    <row r="22" spans="1:6" ht="15">
+      <c r="G18" t="s">
+        <v>55</v>
+      </c>
+      <c r="H18" t="s">
+        <v>41</v>
+      </c>
+      <c r="I18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>